--- a/sim04/Sim04_355444/Sim04_GradingForm_355444.xlsx
+++ b/sim04/Sim04_355444/Sim04_GradingForm_355444.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t xml:space="preserve">Sim:</t>
   </si>
@@ -115,6 +115,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -476,6 +479,9 @@
   </si>
   <si>
     <t xml:space="preserve">- Note: No other Valgrind errors are considered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: When running the binary by itself it does not produce an infinite loop, with valgrind it does. Depending on the run, different number of blocks is lost, I got 6 consistently.</t>
   </si>
   <si>
     <t xml:space="preserve">Assignment Specification or Constraint Not Met</t>
@@ -886,8 +892,8 @@
   </sheetPr>
   <dimension ref="A1:V189"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C121" activeCellId="0" sqref="C121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B159" activeCellId="0" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -932,11 +938,13 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="n">
+        <v>355444</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="J3" s="1" t="s">
         <v>3</v>
@@ -1066,27 +1074,33 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="13"/>
       <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="14"/>
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="14"/>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,81 +1109,81 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="15" t="n">
         <v>2</v>
       </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15" t="n">
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="n">
+      <c r="C32" s="15"/>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15" t="n">
+      <c r="C33" s="15"/>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15" t="n">
-        <v>2</v>
-      </c>
+      <c r="C34" s="15"/>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="n">
         <f aca="false">SUM(C30:C34)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>10</v>
@@ -1177,7 +1191,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,69 +1245,69 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15" t="n">
+      <c r="B48" s="15" t="n">
         <v>40</v>
       </c>
+      <c r="C48" s="15"/>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="n">
         <f aca="false">C48</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,81 +1361,81 @@
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="C63" s="15"/>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15" t="n">
+      <c r="E64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15" t="n">
+      <c r="C65" s="15"/>
+      <c r="D65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15" t="n">
+      <c r="C66" s="15"/>
+      <c r="D66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15" t="n">
-        <v>5</v>
-      </c>
+      <c r="C67" s="15"/>
       <c r="D67" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="n">
         <f aca="false">SUM(C63:C67)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>25</v>
@@ -1429,7 +1443,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,48 +1495,48 @@
       <c r="N73" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15" t="n">
+      <c r="B75" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="C75" s="15"/>
       <c r="D75" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15" t="n">
+      <c r="B76" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="C76" s="15"/>
       <c r="D76" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15" t="n">
+      <c r="B77" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="C77" s="15"/>
       <c r="D77" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="n">
         <f aca="false">SUM(C75:C77)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>15</v>
@@ -1530,7 +1544,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,59 +1595,70 @@
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="15"/>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="C85" s="15"/>
       <c r="D85" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="15"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="C86" s="15"/>
       <c r="D86" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="15"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="C87" s="15"/>
       <c r="D87" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="15"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="C88" s="15"/>
       <c r="D88" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="15"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="C89" s="15"/>
       <c r="D89" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2" t="n">
         <f aca="false">SUM(C85:C89)</f>
@@ -1645,7 +1670,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,39 +1721,45 @@
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="15"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="C97" s="15"/>
       <c r="D97" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="15"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="C98" s="15"/>
       <c r="D98" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="15"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="C99" s="15"/>
       <c r="D99" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" s="2" t="n">
         <f aca="false">SUM(C97:C99)</f>
@@ -1740,7 +1771,7 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,36 +1823,36 @@
       <c r="N105" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="15"/>
-      <c r="C107" s="15" t="n">
+      <c r="B107" s="15" t="n">
         <v>20</v>
       </c>
+      <c r="C107" s="15"/>
       <c r="D107" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="15"/>
-      <c r="C108" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C109" s="2" t="n">
         <f aca="false">SUM(C107:C108)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>0</v>
@@ -1829,7 +1860,7 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,32 +1914,32 @@
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C116" s="8"/>
       <c r="D116" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15" t="n">
+      <c r="B119" s="15" t="n">
         <v>15</v>
       </c>
+      <c r="C119" s="15"/>
       <c r="D119" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -1930,15 +1961,15 @@
     </row>
     <row r="120" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15" t="n">
+      <c r="B120" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="C120" s="15"/>
       <c r="D120" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -1960,15 +1991,15 @@
     </row>
     <row r="121" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15" t="n">
+      <c r="B121" s="15" t="n">
         <v>5</v>
       </c>
+      <c r="C121" s="15"/>
       <c r="D121" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -1988,15 +2019,17 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="C122" s="15"/>
       <c r="D122" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -2016,15 +2049,17 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
     </row>
-    <row r="123" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="C123" s="15"/>
       <c r="D123" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -2044,15 +2079,17 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
     </row>
-    <row r="124" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="C124" s="15"/>
       <c r="D124" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -2074,11 +2111,11 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2" t="n">
         <f aca="false">SUM(C119:C124)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>40</v>
@@ -2134,18 +2171,18 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="8"/>
       <c r="E132" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,13 +2190,15 @@
     </row>
     <row r="135" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C135" s="15"/>
       <c r="D135" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -2181,13 +2220,15 @@
     </row>
     <row r="136" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C136" s="15"/>
       <c r="D136" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -2209,13 +2250,15 @@
     </row>
     <row r="137" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C137" s="15"/>
       <c r="D137" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -2237,13 +2280,15 @@
     </row>
     <row r="138" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C138" s="15"/>
       <c r="D138" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -2265,13 +2310,15 @@
     </row>
     <row r="139" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C139" s="15"/>
       <c r="D139" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -2293,13 +2340,15 @@
     </row>
     <row r="140" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C140" s="15"/>
       <c r="D140" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -2321,13 +2370,15 @@
     </row>
     <row r="141" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C141" s="15"/>
       <c r="D141" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -2349,13 +2400,15 @@
     </row>
     <row r="142" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C142" s="15"/>
       <c r="D142" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -2377,13 +2430,15 @@
     </row>
     <row r="143" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C143" s="15"/>
       <c r="D143" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -2405,13 +2460,15 @@
     </row>
     <row r="144" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C144" s="15"/>
       <c r="D144" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -2433,13 +2490,15 @@
     </row>
     <row r="145" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C145" s="15"/>
       <c r="D145" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -2461,13 +2520,15 @@
     </row>
     <row r="146" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C146" s="15"/>
       <c r="D146" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -2489,13 +2550,15 @@
     </row>
     <row r="147" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C147" s="15"/>
       <c r="D147" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -2517,13 +2580,15 @@
     </row>
     <row r="148" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C148" s="15"/>
       <c r="D148" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -2545,13 +2610,15 @@
     </row>
     <row r="149" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C149" s="15"/>
       <c r="D149" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -2573,13 +2640,15 @@
     </row>
     <row r="150" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C150" s="15"/>
       <c r="D150" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -2601,13 +2670,15 @@
     </row>
     <row r="151" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C151" s="15"/>
       <c r="D151" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -2629,13 +2700,15 @@
     </row>
     <row r="152" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C152" s="15"/>
       <c r="D152" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -2655,9 +2728,9 @@
       <c r="U152" s="1"/>
       <c r="V152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C153" s="2" t="n">
         <f aca="false">SUM(C135:C152)</f>
@@ -2673,38 +2746,39 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="15"/>
+      <c r="B158" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="C158" s="15"/>
       <c r="D158" s="8"/>
       <c r="E158" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C159" s="1" t="n">
-        <f aca="false">C158</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,7 +2786,7 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -2758,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -2788,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -2818,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -2848,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -2878,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -2908,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -2930,7 +3004,7 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C170" s="2" t="n">
         <f aca="false">SUM(C163:C169)</f>
@@ -3039,7 +3113,7 @@
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="19"/>
       <c r="B176" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
@@ -3056,14 +3130,14 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F178" s="2" t="n">
         <f aca="false">C170+C159+C153+C125+C109+C100+C90+C78+C68+C49+C35</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="G178" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H178" s="2" t="n">
         <f aca="false">D170+D159+D153+D125+D109+D100+D90+D78+D68+D49+D35</f>
@@ -3072,14 +3146,14 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F179" s="2" t="n">
         <f aca="false">CEILING(F178*H179/H178,1)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>100</v>
@@ -3087,18 +3161,18 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J180" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="183" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,14 +3276,14 @@
         <v>1</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F189" s="2" t="n">
         <f aca="false">CEILING(A189*(F179+C181),1)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G189" s="21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>125</v>
